--- a/spreadsheet_files/Muscle_action_answer_calculator.xlsx
+++ b/spreadsheet_files/Muscle_action_answer_calculator.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Pattillo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pattillo/Documents/GitHub/smart-skeleton/spreadsheet_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA445638-6459-4765-A430-12CE4AE14B75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C058C-653F-0A47-8A22-78D890204257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1680" windowWidth="25875" windowHeight="13335" xr2:uid="{4AB589AF-D212-FE40-8E11-EEE1EB78BB5E}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="25600" windowHeight="13340" activeTab="2" xr2:uid="{4AB589AF-D212-FE40-8E11-EEE1EB78BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="answer code calculator" sheetId="1" r:id="rId1"/>
     <sheet name="instructions" sheetId="3" r:id="rId2"/>
     <sheet name="muscle codes" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>Wrist abducted</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>*leave these as zero.  Since the skeleton should start from</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>only action on the wrist will be detected. If this muscle is used, then the actions on the digit(s) may be pointed out in feedback.</t>
+  </si>
+  <si>
+    <t>only action on the ankle will be detected. If this muscle is used, then the actions on the digit(s) may be pointed out in feedback.</t>
+  </si>
+  <si>
+    <t>digit motions are not currently detected. This is here for possible future functions</t>
+  </si>
+  <si>
+    <t>rotation of the knee is not currently detected. This is here for possible future functions</t>
+  </si>
+  <si>
+    <t>rotation of the knee is not currently detected. Only actions on the hip should be used.</t>
   </si>
 </sst>
 </file>
@@ -859,21 +877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A80A61C-C86A-CA41-97C5-C95EF91DE2F5}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="33" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="33" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" customWidth="1"/>
     <col min="35" max="35" width="0" hidden="1" customWidth="1"/>
     <col min="38" max="39" width="0" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="54.75" customWidth="1"/>
+    <col min="40" max="40" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -971,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="143.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="145" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI4" s="3">
         <f>IF(AF3=1,2,0)</f>
         <v>0</v>
@@ -1210,7 +1228,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI5" s="3">
         <f>IF(AE3=1,4,0)</f>
         <v>0</v>
@@ -1228,7 +1246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AH6" s="2"/>
       <c r="AI6" s="3">
         <f>IF(AD3=1,8,0)</f>
@@ -1244,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI7" s="3">
         <f>IF(AC3=1,16,0)</f>
         <v>0</v>
@@ -1259,7 +1277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI8" s="3">
         <f>IF(AB3=1,32,0)</f>
         <v>0</v>
@@ -1274,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI9" s="3">
         <f>IF(AA3=1,64,0)</f>
         <v>0</v>
@@ -1289,7 +1307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI10" s="3">
         <f>IF(Z3=1,128,0)</f>
         <v>0</v>
@@ -1304,7 +1322,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI11" s="3">
         <f>IF(Y3=1,256,0)</f>
         <v>0</v>
@@ -1319,7 +1337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI12" s="3">
         <f>IF(X3=1,512,0)</f>
         <v>0</v>
@@ -1334,7 +1352,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI13" s="3">
         <f>IF(W3=1,1024,0)</f>
         <v>0</v>
@@ -1349,7 +1367,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI14" s="3">
         <f>IF(V3=1,2048,0)</f>
         <v>0</v>
@@ -1364,7 +1382,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI15" s="3">
         <f>IF(U3=1,4096,0)</f>
         <v>0</v>
@@ -1379,7 +1397,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AI16" s="3">
         <f>IF(T3=1,8192,0)</f>
         <v>0</v>
@@ -1394,7 +1412,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI17" s="3">
         <f>IF(S3=1,16384,0)</f>
         <v>0</v>
@@ -1409,7 +1427,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI18">
         <f>IF(R3=1,32768,0)</f>
         <v>0</v>
@@ -1422,7 +1440,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI19">
         <f>IF(Q3=1,65536,0)</f>
         <v>0</v>
@@ -1435,7 +1453,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI20">
         <f>IF(P3=1,131072,0)</f>
         <v>0</v>
@@ -1448,7 +1466,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI21">
         <f>IF(O3=1,262144,0)</f>
         <v>0</v>
@@ -1461,7 +1479,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI22">
         <f>IF(N3=1,524288,0)</f>
         <v>0</v>
@@ -1474,7 +1492,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI23">
         <f>IF(M3=1,1048576,0)</f>
         <v>0</v>
@@ -1487,7 +1505,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI24">
         <f>IF(L3=1,2097152,0)</f>
         <v>0</v>
@@ -1500,7 +1518,7 @@
         <v>2097152</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AI25">
         <f>IF(K3=1,4194304,0)</f>
         <v>0</v>
@@ -1513,7 +1531,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL26">
         <v>23</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL27">
         <v>24</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>16777216</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -1543,7 +1561,7 @@
         <v>33554432</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL29">
         <v>26</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>67108864</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL30">
         <v>27</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>134217728</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL31">
         <v>28</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>268435456</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AL32">
         <v>29</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>536870912</v>
       </c>
     </row>
-    <row r="33" spans="38:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="38:39" x14ac:dyDescent="0.2">
       <c r="AL33">
         <v>30</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>1073741824</v>
       </c>
     </row>
-    <row r="34" spans="38:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="38:39" x14ac:dyDescent="0.2">
       <c r="AL34">
         <v>31</v>
       </c>
@@ -1611,22 +1629,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>116</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>118</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>120</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>123</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>126</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>128</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>132</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>134</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>136</v>
       </c>
@@ -1729,35 +1747,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1884C-B231-9148-BE01-A45E67A1E81D}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1773,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1781,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1789,7 +1813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1805,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1813,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1829,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1837,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1845,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1877,7 +1901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1885,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1903,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1912,7 +1936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1921,7 +1945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1929,8 +1953,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1938,8 +1965,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1947,8 +1977,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1956,8 +1989,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1965,8 +2001,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1974,16 +2013,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2009,7 +2054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2018,7 +2063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2035,8 +2080,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2044,8 +2092,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2053,8 +2104,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2062,8 +2116,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2072,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2081,7 +2138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2090,7 +2147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2125,7 +2182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2133,7 +2190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -2151,7 +2208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2160,7 +2217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2169,7 +2226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2178,7 +2235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2187,7 +2244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -2205,7 +2262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2214,7 +2271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -2223,7 +2280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -2231,7 +2288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -2256,8 +2313,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2266,7 +2326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -2275,7 +2335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2284,7 +2344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -2293,7 +2353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -2302,7 +2362,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2311,7 +2371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -2320,7 +2380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2329,7 +2389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2338,7 +2398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2347,7 +2407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -2356,7 +2416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -2365,7 +2425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -2374,7 +2434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2382,8 +2442,11 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -2392,7 +2455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -2401,7 +2464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -2419,7 +2482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2428,7 +2491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -2437,7 +2500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2446,7 +2509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -2456,7 +2519,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
+  <sortState ref="A2:B82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadsheet_files/Muscle_action_answer_calculator.xlsx
+++ b/spreadsheet_files/Muscle_action_answer_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pattillo/Documents/GitHub/smart-skeleton/spreadsheet_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C058C-653F-0A47-8A22-78D890204257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD43014-E070-054D-B321-4F9E21B94D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="25600" windowHeight="13340" activeTab="2" xr2:uid="{4AB589AF-D212-FE40-8E11-EEE1EB78BB5E}"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="25600" windowHeight="13340" activeTab="1" xr2:uid="{4AB589AF-D212-FE40-8E11-EEE1EB78BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="answer code calculator" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Wrist abducted</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>rotation of the knee is not currently detected. Only actions on the hip should be used.</t>
+  </si>
+  <si>
+    <t>Warning!  Do not use commas in the text fields of questions.csv.  Substitute a "|" for a comma, and the application will render a comma.</t>
+  </si>
+  <si>
+    <t>For example if you want a field to say "No, please try again." then enter "No| please try again".  The text will appear with a comma on screen.</t>
   </si>
 </sst>
 </file>
@@ -877,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A80A61C-C86A-CA41-97C5-C95EF91DE2F5}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D745D06A-7587-3048-B8DA-EF8263E0CA9C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,6 +1746,16 @@
         <v>137</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1749,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1884C-B231-9148-BE01-A45E67A1E81D}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2192,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2184,7 +2200,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B46">
         <v>45</v>
